--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_20_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_20_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.678626547583664, 3.3205016276572517]</t>
+          <t>[2.6918693262237294, 3.3072588490171864]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.2933352487828129, 0.07948776926750334]</t>
+          <t>[-0.2932820105766045, 0.07943453106129494]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.2540778177686585</v>
+        <v>0.2539441408770404</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2540778177686585</v>
+        <v>0.2539441408770404</v>
       </c>
       <c r="W2" t="n">
         <v>5.139639639639785</v>
